--- a/www/docs/Ceylon_1500_1945_all_data.xlsx
+++ b/www/docs/Ceylon_1500_1945_all_data.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="560">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1590,6 +1591,12 @@
     <t>geacron/263</t>
   </si>
   <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Ceylon</t>
   </si>
   <si>
@@ -1597,6 +1604,54 @@
   </si>
   <si>
     <t>Labourers Real Wage</t>
+  </si>
+  <si>
+    <t>3.90734792038614</t>
+  </si>
+  <si>
+    <t>3.51112380721426</t>
+  </si>
+  <si>
+    <t>3.02829789205937</t>
+  </si>
+  <si>
+    <t>3.29118695444556</t>
+  </si>
+  <si>
+    <t>5.49818908296684</t>
+  </si>
+  <si>
+    <t>4.40791484534019</t>
+  </si>
+  <si>
+    <t>6.1897656734601</t>
+  </si>
+  <si>
+    <t>5.69981446590631</t>
+  </si>
+  <si>
+    <t>5.28770065707493</t>
+  </si>
+  <si>
+    <t>4.73477953650952</t>
+  </si>
+  <si>
+    <t>13.8470032736891</t>
+  </si>
+  <si>
+    <t>6.79525340506345</t>
+  </si>
+  <si>
+    <t>Borders Start Year</t>
+  </si>
+  <si>
+    <t>Borders End Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>Description</t>
@@ -3267,12 +3322,14 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="n">
-        <v>263.0</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E2" t="s">
         <v>308</v>
@@ -3281,553 +3338,1559 @@
         <v>453</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2" t="n">
-        <v>3.90734792038614</v>
-      </c>
-      <c r="NX2" t="n">
-        <v>3.51112380721426</v>
-      </c>
-      <c r="NY2" t="n">
-        <v>3.02829789205937</v>
-      </c>
-      <c r="NZ2" t="n">
-        <v>3.29118695444556</v>
-      </c>
-      <c r="OA2" t="n">
-        <v>5.49818908296684</v>
-      </c>
-      <c r="OB2" t="n">
-        <v>4.40791484534019</v>
-      </c>
-      <c r="OC2" t="n">
-        <v>6.1897656734601</v>
-      </c>
-      <c r="OD2" t="n">
-        <v>5.69981446590631</v>
-      </c>
-      <c r="OE2" t="n">
-        <v>5.28770065707493</v>
-      </c>
-      <c r="OF2" t="n">
-        <v>4.73477953650952</v>
-      </c>
-      <c r="OG2" t="n">
-        <v>4.73477953650952</v>
-      </c>
-      <c r="OH2" t="n">
-        <v>13.8470032736891</v>
-      </c>
-      <c r="OI2" t="n">
-        <v>6.79525340506345</v>
-      </c>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2"/>
-      <c r="RA2"/>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
+        <v>529</v>
+      </c>
+      <c r="I2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" t="s">
+        <v>526</v>
+      </c>
+      <c r="P2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S2" t="s">
+        <v>526</v>
+      </c>
+      <c r="T2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="II2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>530</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>531</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>532</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>533</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>534</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>535</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>536</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>537</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>538</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>539</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>539</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>540</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>541</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>526</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3844,68 +4907,361 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="C1" t="s">
-        <v>530</v>
+        <v>543</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C2" t="s">
-        <v>537</v>
+        <v>527</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.907348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B3" t="s">
         <v>527</v>
       </c>
-      <c r="C3" t="s">
-        <v>538</v>
+      <c r="B3" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.511124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" t="s">
         <v>527</v>
       </c>
-      <c r="C4" t="s">
-        <v>539</v>
+      <c r="B4" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.028298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B5" t="s">
         <v>527</v>
       </c>
-      <c r="C5" t="s">
-        <v>540</v>
+      <c r="B5" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.291187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>527</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.498189</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.407915</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.189766</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1885.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.699814</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1886.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.287701</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.73478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>529</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.73478</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13.847003</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.795253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>553</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Ceylon_1500_1945_all_data.xlsx
+++ b/www/docs/Ceylon_1500_1945_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="546">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1591,12 +1591,6 @@
     <t>geacron/263</t>
   </si>
   <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Ceylon</t>
   </si>
   <si>
@@ -1606,42 +1600,6 @@
     <t>Labourers Real Wage</t>
   </si>
   <si>
-    <t>3.90734792038614</t>
-  </si>
-  <si>
-    <t>3.51112380721426</t>
-  </si>
-  <si>
-    <t>3.02829789205937</t>
-  </si>
-  <si>
-    <t>3.29118695444556</t>
-  </si>
-  <si>
-    <t>5.49818908296684</t>
-  </si>
-  <si>
-    <t>4.40791484534019</t>
-  </si>
-  <si>
-    <t>6.1897656734601</t>
-  </si>
-  <si>
-    <t>5.69981446590631</t>
-  </si>
-  <si>
-    <t>5.28770065707493</t>
-  </si>
-  <si>
-    <t>4.73477953650952</t>
-  </si>
-  <si>
-    <t>13.8470032736891</t>
-  </si>
-  <si>
-    <t>6.79525340506345</t>
-  </si>
-  <si>
     <t>Borders Start Year</t>
   </si>
   <si>
@@ -1681,19 +1639,19 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/data/DataAtHistoricalBorders.xlsx</t>
+    <t>https://www.clio-infra.eu/data/Ceylon_1500_1945_all_data.xlsx</t>
   </si>
   <si>
     <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.bib</t>
   </si>
 </sst>
 </file>
@@ -3322,1575 +3280,567 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
         <v>525</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="G2" t="s">
         <v>526</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>527</v>
       </c>
-      <c r="E2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G2" t="s">
-        <v>528</v>
-      </c>
-      <c r="H2" t="s">
-        <v>529</v>
-      </c>
-      <c r="I2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O2" t="s">
-        <v>526</v>
-      </c>
-      <c r="P2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>526</v>
-      </c>
-      <c r="R2" t="s">
-        <v>526</v>
-      </c>
-      <c r="S2" t="s">
-        <v>526</v>
-      </c>
-      <c r="T2" t="s">
-        <v>526</v>
-      </c>
-      <c r="U2" t="s">
-        <v>526</v>
-      </c>
-      <c r="V2" t="s">
-        <v>526</v>
-      </c>
-      <c r="W2" t="s">
-        <v>526</v>
-      </c>
-      <c r="X2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="II2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>530</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>531</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>532</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>533</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>534</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>535</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>536</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>537</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>538</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>539</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>539</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>540</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>541</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>526</v>
-      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2" t="n">
+        <v>3.907348</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>3.511124</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>3.028298</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>3.291187</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>5.498189</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>4.407915</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>6.189766</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>5.699814</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>5.287701</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>4.73478</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>4.73478</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>13.847</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>6.795253</v>
+      </c>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4910,24 +3860,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B2" t="n">
         <v>1800.0</v>
@@ -4936,7 +3886,7 @@
         <v>1945.0</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E2" t="n">
         <v>1878.0</v>
@@ -4947,7 +3897,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B3" t="n">
         <v>1800.0</v>
@@ -4956,7 +3906,7 @@
         <v>1945.0</v>
       </c>
       <c r="D3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E3" t="n">
         <v>1879.0</v>
@@ -4967,7 +3917,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B4" t="n">
         <v>1800.0</v>
@@ -4976,7 +3926,7 @@
         <v>1945.0</v>
       </c>
       <c r="D4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E4" t="n">
         <v>1880.0</v>
@@ -4987,7 +3937,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B5" t="n">
         <v>1800.0</v>
@@ -4996,7 +3946,7 @@
         <v>1945.0</v>
       </c>
       <c r="D5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E5" t="n">
         <v>1881.0</v>
@@ -5007,7 +3957,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B6" t="n">
         <v>1800.0</v>
@@ -5016,7 +3966,7 @@
         <v>1945.0</v>
       </c>
       <c r="D6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E6" t="n">
         <v>1882.0</v>
@@ -5027,7 +3977,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B7" t="n">
         <v>1800.0</v>
@@ -5036,7 +3986,7 @@
         <v>1945.0</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E7" t="n">
         <v>1883.0</v>
@@ -5047,7 +3997,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B8" t="n">
         <v>1800.0</v>
@@ -5056,7 +4006,7 @@
         <v>1945.0</v>
       </c>
       <c r="D8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E8" t="n">
         <v>1884.0</v>
@@ -5067,7 +4017,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B9" t="n">
         <v>1800.0</v>
@@ -5076,7 +4026,7 @@
         <v>1945.0</v>
       </c>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E9" t="n">
         <v>1885.0</v>
@@ -5087,7 +4037,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B10" t="n">
         <v>1800.0</v>
@@ -5096,7 +4046,7 @@
         <v>1945.0</v>
       </c>
       <c r="D10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E10" t="n">
         <v>1886.0</v>
@@ -5107,7 +4057,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B11" t="n">
         <v>1800.0</v>
@@ -5116,7 +4066,7 @@
         <v>1945.0</v>
       </c>
       <c r="D11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E11" t="n">
         <v>1887.0</v>
@@ -5127,7 +4077,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B12" t="n">
         <v>1800.0</v>
@@ -5136,7 +4086,7 @@
         <v>1945.0</v>
       </c>
       <c r="D12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E12" t="n">
         <v>1888.0</v>
@@ -5147,7 +4097,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B13" t="n">
         <v>1800.0</v>
@@ -5156,7 +4106,7 @@
         <v>1945.0</v>
       </c>
       <c r="D13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E13" t="n">
         <v>1889.0</v>
@@ -5167,7 +4117,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B14" t="n">
         <v>1800.0</v>
@@ -5176,7 +4126,7 @@
         <v>1945.0</v>
       </c>
       <c r="D14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E14" t="n">
         <v>1890.0</v>
@@ -5200,68 +4150,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Ceylon_1500_1945_all_data.xlsx
+++ b/www/docs/Ceylon_1500_1945_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="581">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1588,6 +1588,111 @@
     <t>2015</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
     <t>geacron/263</t>
   </si>
   <si>
@@ -1642,7 +1747,7 @@
     <t>https://www.clio-infra.eu/data/Ceylon_1500_1945_all_data.xlsx</t>
   </si>
   <si>
-    <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
+    <t>Zwart, Pim de, Bas van Leeuwen, and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
@@ -3275,17 +3380,122 @@
       <c r="TD1" t="s">
         <v>523</v>
       </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="UH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="UI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="UJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="UK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="UL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="UM1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B2" t="n">
         <v>263.0</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="E2" t="n">
         <v>1800.0</v>
@@ -3294,10 +3504,10 @@
         <v>1945.0</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -3841,6 +4051,41 @@
       <c r="TB2"/>
       <c r="TC2"/>
       <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3860,24 +4105,129 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" t="s">
         <v>530</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>531</v>
+      </c>
+      <c r="M1" t="s">
+        <v>532</v>
+      </c>
+      <c r="N1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O1" t="s">
+        <v>534</v>
+      </c>
+      <c r="P1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S1" t="s">
+        <v>538</v>
+      </c>
+      <c r="T1" t="s">
+        <v>539</v>
+      </c>
+      <c r="U1" t="s">
+        <v>540</v>
+      </c>
+      <c r="V1" t="s">
+        <v>541</v>
+      </c>
+      <c r="W1" t="s">
+        <v>542</v>
+      </c>
+      <c r="X1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B2" t="n">
         <v>1800.0</v>
@@ -3886,18 +4236,53 @@
         <v>1945.0</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" t="n">
+        <v>562</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2" t="n">
         <v>1878.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AO2" t="n">
         <v>3.907348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B3" t="n">
         <v>1800.0</v>
@@ -3906,18 +4291,53 @@
         <v>1945.0</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" t="n">
+        <v>562</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3" t="n">
         <v>1879.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="AO3" t="n">
         <v>3.511124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B4" t="n">
         <v>1800.0</v>
@@ -3926,18 +4346,53 @@
         <v>1945.0</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E4" t="n">
+        <v>562</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4" t="n">
         <v>1880.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="AO4" t="n">
         <v>3.028298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B5" t="n">
         <v>1800.0</v>
@@ -3946,18 +4401,53 @@
         <v>1945.0</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" t="n">
+        <v>562</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5" t="n">
         <v>1881.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="AO5" t="n">
         <v>3.291187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B6" t="n">
         <v>1800.0</v>
@@ -3966,18 +4456,53 @@
         <v>1945.0</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
-      </c>
-      <c r="E6" t="n">
+        <v>562</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6" t="n">
         <v>1882.0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="AO6" t="n">
         <v>5.498189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B7" t="n">
         <v>1800.0</v>
@@ -3986,18 +4511,53 @@
         <v>1945.0</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
-      </c>
-      <c r="E7" t="n">
+        <v>562</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7" t="n">
         <v>1883.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="AO7" t="n">
         <v>4.407915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B8" t="n">
         <v>1800.0</v>
@@ -4006,18 +4566,53 @@
         <v>1945.0</v>
       </c>
       <c r="D8" t="s">
-        <v>527</v>
-      </c>
-      <c r="E8" t="n">
+        <v>562</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8" t="n">
         <v>1884.0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="AO8" t="n">
         <v>6.189766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B9" t="n">
         <v>1800.0</v>
@@ -4026,18 +4621,53 @@
         <v>1945.0</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E9" t="n">
+        <v>562</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9" t="n">
         <v>1885.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="AO9" t="n">
         <v>5.699814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B10" t="n">
         <v>1800.0</v>
@@ -4046,18 +4676,53 @@
         <v>1945.0</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
-      </c>
-      <c r="E10" t="n">
+        <v>562</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10" t="n">
         <v>1886.0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="AO10" t="n">
         <v>5.287701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B11" t="n">
         <v>1800.0</v>
@@ -4066,18 +4731,53 @@
         <v>1945.0</v>
       </c>
       <c r="D11" t="s">
-        <v>527</v>
-      </c>
-      <c r="E11" t="n">
+        <v>562</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11" t="n">
         <v>1887.0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="AO11" t="n">
         <v>4.73478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B12" t="n">
         <v>1800.0</v>
@@ -4086,18 +4786,53 @@
         <v>1945.0</v>
       </c>
       <c r="D12" t="s">
-        <v>527</v>
-      </c>
-      <c r="E12" t="n">
+        <v>562</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12" t="n">
         <v>1888.0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="AO12" t="n">
         <v>4.73478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B13" t="n">
         <v>1800.0</v>
@@ -4106,18 +4841,53 @@
         <v>1945.0</v>
       </c>
       <c r="D13" t="s">
-        <v>527</v>
-      </c>
-      <c r="E13" t="n">
+        <v>562</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13" t="n">
         <v>1889.0</v>
       </c>
-      <c r="F13" t="n">
+      <c r="AO13" t="n">
         <v>13.847003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B14" t="n">
         <v>1800.0</v>
@@ -4126,12 +4896,47 @@
         <v>1945.0</v>
       </c>
       <c r="D14" t="s">
-        <v>527</v>
-      </c>
-      <c r="E14" t="n">
+        <v>562</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14" t="n">
         <v>1890.0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="AO14" t="n">
         <v>6.795253</v>
       </c>
     </row>
@@ -4150,68 +4955,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C1" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C4" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C5" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
